--- a/results/[13_zero_co2_price]_#_fix_cost.xlsx
+++ b/results/[13_zero_co2_price]_#_fix_cost.xlsx
@@ -520,7 +520,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>5.438409379980164</v>
+        <v>1037.265132737054</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -529,19 +529,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>13.8685083630681</v>
+        <v>28926.05393052954</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>7.286333141395652</v>
+        <v>8095.925712661834</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>31.113977708736</v>
+        <v>16171.06685703679</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -550,16 +550,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>48492.22142001599</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>10595.37713982</v>
       </c>
       <c r="N2" t="n">
-        <v>5.02231008066353</v>
+        <v>7015.544443014018</v>
       </c>
       <c r="O2" t="n">
-        <v>7.351415688037338</v>
+        <v>6978.613354318873</v>
       </c>
     </row>
   </sheetData>
@@ -660,10 +660,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>4.076683804611164</v>
+        <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>14.51626430546461</v>
+        <v>4157.588990853394</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -672,19 +672,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>52.5371909617916</v>
+        <v>45991.90904307188</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>7.286333141395652</v>
+        <v>8095.925712661834</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>89.10456262881476</v>
+        <v>37079.12819938764</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -693,16 +693,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>54844.03303316472</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>17449.04999683176</v>
       </c>
       <c r="N2" t="n">
-        <v>13.56505044380656</v>
+        <v>8950.626290977361</v>
       </c>
       <c r="O2" t="n">
-        <v>14.61911236437251</v>
+        <v>9689.183138434251</v>
       </c>
     </row>
   </sheetData>
@@ -803,10 +803,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>9.387042818425533</v>
+        <v>2754.31755456332</v>
       </c>
       <c r="B2" t="n">
-        <v>28.57439580287139</v>
+        <v>6368.910634126893</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -815,19 +815,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>110.6943404773012</v>
+        <v>57457.45307013817</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>7.286333141395652</v>
+        <v>8095.925712661834</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>175.1020809179774</v>
+        <v>52465.73681402855</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -836,16 +836,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>54844.03303316472</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>21912.87293902603</v>
       </c>
       <c r="N2" t="n">
-        <v>29.74330410074733</v>
+        <v>12929.21708841329</v>
       </c>
       <c r="O2" t="n">
-        <v>26.79969850596812</v>
+        <v>12821.53916790957</v>
       </c>
     </row>
   </sheetData>
@@ -946,10 +946,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>9.387042818425533</v>
+        <v>2754.31755456332</v>
       </c>
       <c r="B2" t="n">
-        <v>28.57439580287139</v>
+        <v>6368.910634126893</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -958,19 +958,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>110.6943404773012</v>
+        <v>57457.45307013817</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>7.286333141395652</v>
+        <v>8095.925712661834</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>175.1020809179774</v>
+        <v>52465.73681402855</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -979,16 +979,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>54844.03303316472</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>21912.87293902603</v>
       </c>
       <c r="N2" t="n">
-        <v>29.74330410074733</v>
+        <v>13044.31074660906</v>
       </c>
       <c r="O2" t="n">
-        <v>27.63133208575358</v>
+        <v>12821.53916790957</v>
       </c>
     </row>
   </sheetData>
@@ -1089,10 +1089,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>11.71497725772599</v>
+        <v>5713.151062849596</v>
       </c>
       <c r="B2" t="n">
-        <v>28.57439580287139</v>
+        <v>6368.910634126893</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -1101,19 +1101,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>110.6943404773012</v>
+        <v>57457.45307013817</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>7.286333141395652</v>
+        <v>8095.925712661834</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>175.1020809179774</v>
+        <v>52465.73681402855</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -1122,16 +1122,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>54844.03303316472</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>21912.87293902603</v>
       </c>
       <c r="N2" t="n">
-        <v>29.74330410074733</v>
+        <v>13482.79507252446</v>
       </c>
       <c r="O2" t="n">
-        <v>28.33100537978183</v>
+        <v>14873.28000436571</v>
       </c>
     </row>
   </sheetData>
@@ -1232,10 +1232,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>11.71497725772599</v>
+        <v>5713.151062849596</v>
       </c>
       <c r="B2" t="n">
-        <v>28.57439580287139</v>
+        <v>6368.910634126893</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -1244,19 +1244,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>110.6943404773012</v>
+        <v>57457.45307013817</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>7.286333141395652</v>
+        <v>8095.925712661834</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>175.1020809179774</v>
+        <v>52465.73681402855</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -1265,16 +1265,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>54844.03303316472</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>21912.87293902603</v>
       </c>
       <c r="N2" t="n">
-        <v>29.74330410074733</v>
+        <v>13482.79507252446</v>
       </c>
       <c r="O2" t="n">
-        <v>28.33100537978183</v>
+        <v>14873.28000436571</v>
       </c>
     </row>
   </sheetData>

--- a/results/[13_zero_co2_price]_#_fix_cost.xlsx
+++ b/results/[13_zero_co2_price]_#_fix_cost.xlsx
@@ -517,10 +517,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2052.218860977046</v>
+        <v>4480.996542313505</v>
       </c>
       <c r="B2" t="n">
-        <v>414.2092241107497</v>
+        <v>1957.662650831837</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -529,19 +529,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>4151.291054911</v>
+        <v>13553.5499643962</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>5561.814581730499</v>
+        <v>4231.516049510827</v>
       </c>
       <c r="H2" t="n">
-        <v>48389.61416666667</v>
+        <v>48878.76484426508</v>
       </c>
       <c r="I2" t="n">
-        <v>27601.97061347967</v>
+        <v>40342.40040594552</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -556,10 +556,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>5566.74262317493</v>
+        <v>5043.751150312321</v>
       </c>
       <c r="O2" t="n">
-        <v>5270.502484020808</v>
+        <v>6946.426214796213</v>
       </c>
     </row>
   </sheetData>
@@ -660,10 +660,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>13360.66620041937</v>
+        <v>7441.123814297815</v>
       </c>
       <c r="B2" t="n">
-        <v>2147.274992395539</v>
+        <v>12067.56581655979</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -672,19 +672,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>23198.11342737314</v>
+        <v>20155.94148885614</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>8019.902378734111</v>
+        <v>4231.516049510827</v>
       </c>
       <c r="H2" t="n">
-        <v>60496.07974753212</v>
+        <v>48878.76484426508</v>
       </c>
       <c r="I2" t="n">
-        <v>82531.14001670983</v>
+        <v>60721.20459005129</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -696,13 +696,13 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>734.0531224494713</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>14344.63911642754</v>
+        <v>6892.460151705974</v>
       </c>
       <c r="O2" t="n">
-        <v>12306.21448164699</v>
+        <v>10353.49431872476</v>
       </c>
     </row>
   </sheetData>
@@ -803,10 +803,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>35152.49194819262</v>
+        <v>15683.44064693935</v>
       </c>
       <c r="B2" t="n">
-        <v>17977.50003542302</v>
+        <v>13758.73851748809</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -815,19 +815,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>31338.2146461543</v>
+        <v>20155.94148885614</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>8019.902378734111</v>
+        <v>4231.516049510827</v>
       </c>
       <c r="H2" t="n">
-        <v>60496.07974753212</v>
+        <v>48878.76484426508</v>
       </c>
       <c r="I2" t="n">
-        <v>169746.2724803816</v>
+        <v>78590.13056548127</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -839,13 +839,13 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>32465.48218927615</v>
+        <v>3170.265741071549</v>
       </c>
       <c r="N2" t="n">
-        <v>19564.609772181</v>
+        <v>7844.825721754916</v>
       </c>
       <c r="O2" t="n">
-        <v>31781.30692718853</v>
+        <v>15725.42758621792</v>
       </c>
     </row>
   </sheetData>
@@ -946,10 +946,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>35152.49194819262</v>
+        <v>15683.44064693935</v>
       </c>
       <c r="B2" t="n">
-        <v>17977.50003542302</v>
+        <v>13758.73851748809</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -958,19 +958,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>31338.2146461543</v>
+        <v>20155.94148885614</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>8019.902378734111</v>
+        <v>4231.516049510827</v>
       </c>
       <c r="H2" t="n">
-        <v>60496.07974753212</v>
+        <v>48878.76484426508</v>
       </c>
       <c r="I2" t="n">
-        <v>169746.2724803816</v>
+        <v>78590.13056548127</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -982,13 +982,13 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>32465.48218927615</v>
+        <v>3170.265741071549</v>
       </c>
       <c r="N2" t="n">
-        <v>19564.609772181</v>
+        <v>7844.825721754916</v>
       </c>
       <c r="O2" t="n">
-        <v>31781.30692718853</v>
+        <v>15725.42758621792</v>
       </c>
     </row>
   </sheetData>
@@ -1089,10 +1089,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>35152.49194819262</v>
+        <v>15683.44064693935</v>
       </c>
       <c r="B2" t="n">
-        <v>17977.50003542302</v>
+        <v>13758.73851748809</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -1101,19 +1101,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>31338.2146461543</v>
+        <v>20155.94148885614</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>8019.902378734111</v>
+        <v>4231.516049510827</v>
       </c>
       <c r="H2" t="n">
-        <v>60496.07974753212</v>
+        <v>48878.76484426508</v>
       </c>
       <c r="I2" t="n">
-        <v>169746.2724803816</v>
+        <v>78590.13056548127</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -1125,13 +1125,13 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>32465.48218927615</v>
+        <v>3170.265741071549</v>
       </c>
       <c r="N2" t="n">
-        <v>19564.609772181</v>
+        <v>7844.825721754916</v>
       </c>
       <c r="O2" t="n">
-        <v>31781.30692718853</v>
+        <v>15725.42758621792</v>
       </c>
     </row>
   </sheetData>
@@ -1232,10 +1232,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>35152.49194819262</v>
+        <v>15683.44064693935</v>
       </c>
       <c r="B2" t="n">
-        <v>17977.50003542302</v>
+        <v>13758.73851748809</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -1244,19 +1244,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>31338.2146461543</v>
+        <v>20155.94148885614</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>8019.902378734111</v>
+        <v>4231.516049510827</v>
       </c>
       <c r="H2" t="n">
-        <v>60496.07974753212</v>
+        <v>48878.76484426508</v>
       </c>
       <c r="I2" t="n">
-        <v>169746.2724803816</v>
+        <v>78590.13056548127</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -1268,13 +1268,13 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>32465.48218927615</v>
+        <v>3170.265741071549</v>
       </c>
       <c r="N2" t="n">
-        <v>19564.609772181</v>
+        <v>7844.825721754916</v>
       </c>
       <c r="O2" t="n">
-        <v>31781.30692718853</v>
+        <v>15725.42758621792</v>
       </c>
     </row>
   </sheetData>

--- a/results/[13_zero_co2_price]_#_fix_cost.xlsx
+++ b/results/[13_zero_co2_price]_#_fix_cost.xlsx
@@ -517,10 +517,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>4480.996542313505</v>
+        <v>4386.58098096851</v>
       </c>
       <c r="B2" t="n">
-        <v>1957.662650831837</v>
+        <v>1887.750563722889</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -529,19 +529,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>13553.5499643962</v>
+        <v>13582.352998632</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4231.516049510827</v>
+        <v>4231.516049511674</v>
       </c>
       <c r="H2" t="n">
-        <v>48878.76484426508</v>
+        <v>49322.36395174918</v>
       </c>
       <c r="I2" t="n">
-        <v>40342.40040594552</v>
+        <v>40307.21206296</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -556,10 +556,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>5043.751150312321</v>
+        <v>5169.61678787112</v>
       </c>
       <c r="O2" t="n">
-        <v>6946.426214796213</v>
+        <v>6937.012684477218</v>
       </c>
     </row>
   </sheetData>
@@ -660,10 +660,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>7441.123814297815</v>
+        <v>9530.678248741482</v>
       </c>
       <c r="B2" t="n">
-        <v>12067.56581655979</v>
+        <v>15047.9874167341</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -672,19 +672,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>20155.94148885614</v>
+        <v>24805.53651836642</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4231.516049510827</v>
+        <v>4231.516049511674</v>
       </c>
       <c r="H2" t="n">
-        <v>48878.76484426508</v>
+        <v>59837.73428632267</v>
       </c>
       <c r="I2" t="n">
-        <v>60721.20459005129</v>
+        <v>73842.81869365374</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -699,10 +699,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>6892.460151705974</v>
+        <v>7603.607993347517</v>
       </c>
       <c r="O2" t="n">
-        <v>10353.49431872476</v>
+        <v>12201.72900914311</v>
       </c>
     </row>
   </sheetData>
@@ -803,10 +803,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>15683.44064693935</v>
+        <v>18114.08743212745</v>
       </c>
       <c r="B2" t="n">
-        <v>13758.73851748809</v>
+        <v>15048.22929088937</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -815,19 +815,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>20155.94148885614</v>
+        <v>24805.53651836642</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4231.516049510827</v>
+        <v>4231.516049511674</v>
       </c>
       <c r="H2" t="n">
-        <v>48878.76484426508</v>
+        <v>59837.73428632267</v>
       </c>
       <c r="I2" t="n">
-        <v>78590.13056548127</v>
+        <v>91505.69078165847</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -839,13 +839,13 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>3170.265741071549</v>
+        <v>2812.883060279026</v>
       </c>
       <c r="N2" t="n">
-        <v>7844.825721754916</v>
+        <v>8803.659275398724</v>
       </c>
       <c r="O2" t="n">
-        <v>15725.42758621792</v>
+        <v>17930.2177511366</v>
       </c>
     </row>
   </sheetData>
@@ -946,10 +946,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>15683.44064693935</v>
+        <v>18114.08743212745</v>
       </c>
       <c r="B2" t="n">
-        <v>13758.73851748809</v>
+        <v>15048.22929088937</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -958,19 +958,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>20155.94148885614</v>
+        <v>24805.53651836642</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4231.516049510827</v>
+        <v>4231.516049511674</v>
       </c>
       <c r="H2" t="n">
-        <v>48878.76484426508</v>
+        <v>59837.73428632267</v>
       </c>
       <c r="I2" t="n">
-        <v>78590.13056548127</v>
+        <v>91505.69078165847</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -982,13 +982,13 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>3170.265741071549</v>
+        <v>2812.883060279026</v>
       </c>
       <c r="N2" t="n">
-        <v>7844.825721754916</v>
+        <v>8803.659275398724</v>
       </c>
       <c r="O2" t="n">
-        <v>15725.42758621792</v>
+        <v>17930.2177511366</v>
       </c>
     </row>
   </sheetData>
@@ -1089,10 +1089,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>15683.44064693935</v>
+        <v>18114.08743212745</v>
       </c>
       <c r="B2" t="n">
-        <v>13758.73851748809</v>
+        <v>15048.22929088937</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -1101,19 +1101,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>20155.94148885614</v>
+        <v>24805.53651836642</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4231.516049510827</v>
+        <v>4231.516049511674</v>
       </c>
       <c r="H2" t="n">
-        <v>48878.76484426508</v>
+        <v>59837.73428632267</v>
       </c>
       <c r="I2" t="n">
-        <v>78590.13056548127</v>
+        <v>91505.69078165847</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -1125,13 +1125,13 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>3170.265741071549</v>
+        <v>2812.883060279026</v>
       </c>
       <c r="N2" t="n">
-        <v>7844.825721754916</v>
+        <v>8803.659275398724</v>
       </c>
       <c r="O2" t="n">
-        <v>15725.42758621792</v>
+        <v>17930.2177511366</v>
       </c>
     </row>
   </sheetData>
@@ -1232,10 +1232,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>15683.44064693935</v>
+        <v>18114.08743212745</v>
       </c>
       <c r="B2" t="n">
-        <v>13758.73851748809</v>
+        <v>15048.22929088937</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -1244,19 +1244,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>20155.94148885614</v>
+        <v>24805.53651836642</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4231.516049510827</v>
+        <v>4231.516049511674</v>
       </c>
       <c r="H2" t="n">
-        <v>48878.76484426508</v>
+        <v>59837.73428632267</v>
       </c>
       <c r="I2" t="n">
-        <v>78590.13056548127</v>
+        <v>91505.69078165847</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -1268,13 +1268,13 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>3170.265741071549</v>
+        <v>2812.883060279026</v>
       </c>
       <c r="N2" t="n">
-        <v>7844.825721754916</v>
+        <v>8803.659275398724</v>
       </c>
       <c r="O2" t="n">
-        <v>15725.42758621792</v>
+        <v>17930.2177511366</v>
       </c>
     </row>
   </sheetData>

--- a/results/[13_zero_co2_price]_#_fix_cost.xlsx
+++ b/results/[13_zero_co2_price]_#_fix_cost.xlsx
@@ -520,7 +520,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1037.265132737054</v>
+        <v>973.9537847600009</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -529,7 +529,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>28926.05393052954</v>
+        <v>28982.37596598056</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -541,7 +541,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>16171.06685703679</v>
+        <v>16175.28135478</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -550,16 +550,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>48492.22142001599</v>
+        <v>48524.529503538</v>
       </c>
       <c r="M2" t="n">
-        <v>10595.37713982</v>
+        <v>10590.587968015</v>
       </c>
       <c r="N2" t="n">
-        <v>7015.544443014018</v>
+        <v>7098.474579830177</v>
       </c>
       <c r="O2" t="n">
-        <v>6978.613354318873</v>
+        <v>6965.142708907404</v>
       </c>
     </row>
   </sheetData>
@@ -663,7 +663,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>4157.588990853394</v>
+        <v>5712.560177842886</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -672,7 +672,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>45991.90904307188</v>
+        <v>56106.05588781912</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -684,7 +684,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>37079.12819938764</v>
+        <v>44217.8984721661</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -693,16 +693,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>54844.03303316472</v>
+        <v>66966.57749858923</v>
       </c>
       <c r="M2" t="n">
-        <v>17449.04999683176</v>
+        <v>21984.28023276101</v>
       </c>
       <c r="N2" t="n">
-        <v>8950.626290977361</v>
+        <v>10503.58911838769</v>
       </c>
       <c r="O2" t="n">
-        <v>9689.183138434251</v>
+        <v>12022.61948454972</v>
       </c>
     </row>
   </sheetData>
@@ -803,10 +803,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2754.31755456332</v>
+        <v>2861.961401238371</v>
       </c>
       <c r="B2" t="n">
-        <v>6368.910634126893</v>
+        <v>8026.889663087295</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -815,7 +815,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>57457.45307013817</v>
+        <v>67297.73995507321</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -827,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>52465.73681402855</v>
+        <v>59256.42575923612</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -836,16 +836,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>54844.03303316472</v>
+        <v>66966.57749858923</v>
       </c>
       <c r="M2" t="n">
-        <v>21912.87293902603</v>
+        <v>25464.6214365565</v>
       </c>
       <c r="N2" t="n">
-        <v>12929.21708841329</v>
+        <v>15008.88598672954</v>
       </c>
       <c r="O2" t="n">
-        <v>12821.53916790957</v>
+        <v>14717.53372517132</v>
       </c>
     </row>
   </sheetData>
@@ -946,10 +946,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2754.31755456332</v>
+        <v>2861.961401238371</v>
       </c>
       <c r="B2" t="n">
-        <v>6368.910634126893</v>
+        <v>8026.889663087295</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -958,7 +958,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>57457.45307013817</v>
+        <v>67297.73995507321</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -970,7 +970,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>52465.73681402855</v>
+        <v>59256.42575923612</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -979,16 +979,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>54844.03303316472</v>
+        <v>66966.57749858923</v>
       </c>
       <c r="M2" t="n">
-        <v>21912.87293902603</v>
+        <v>25464.6214365565</v>
       </c>
       <c r="N2" t="n">
-        <v>13044.31074660906</v>
+        <v>15111.10479697713</v>
       </c>
       <c r="O2" t="n">
-        <v>12821.53916790957</v>
+        <v>14717.53372517132</v>
       </c>
     </row>
   </sheetData>
@@ -1089,10 +1089,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>5713.151062849596</v>
+        <v>6302.873118834019</v>
       </c>
       <c r="B2" t="n">
-        <v>6368.910634126893</v>
+        <v>8026.889663087295</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -1101,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>57457.45307013817</v>
+        <v>67297.73995507321</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -1113,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>52465.73681402855</v>
+        <v>59256.42575923612</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -1122,16 +1122,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>54844.03303316472</v>
+        <v>66966.57749858923</v>
       </c>
       <c r="M2" t="n">
-        <v>21912.87293902603</v>
+        <v>25464.6214365565</v>
       </c>
       <c r="N2" t="n">
-        <v>13482.79507252446</v>
+        <v>15633.82115826023</v>
       </c>
       <c r="O2" t="n">
-        <v>14873.28000436571</v>
+        <v>17024.64289623143</v>
       </c>
     </row>
   </sheetData>
@@ -1232,10 +1232,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>5713.151062849596</v>
+        <v>6302.873118834019</v>
       </c>
       <c r="B2" t="n">
-        <v>6368.910634126893</v>
+        <v>8026.889663087295</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -1244,7 +1244,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>57457.45307013817</v>
+        <v>67297.73995507321</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>52465.73681402855</v>
+        <v>59256.42575923612</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -1265,16 +1265,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>54844.03303316472</v>
+        <v>66966.57749858923</v>
       </c>
       <c r="M2" t="n">
-        <v>21912.87293902603</v>
+        <v>25464.6214365565</v>
       </c>
       <c r="N2" t="n">
-        <v>13482.79507252446</v>
+        <v>15633.82115826023</v>
       </c>
       <c r="O2" t="n">
-        <v>14873.28000436571</v>
+        <v>17024.64289623143</v>
       </c>
     </row>
   </sheetData>

--- a/results/[13_zero_co2_price]_#_fix_cost.xlsx
+++ b/results/[13_zero_co2_price]_#_fix_cost.xlsx
@@ -446,67 +446,67 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>gb</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>hp</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>st</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>wi</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>gt</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>dgt</t>
+          <t>ieh</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ieh</t>
+          <t>chp</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>chp</t>
+          <t>ac</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ac</t>
+          <t>ab_ct</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ab_ct</t>
+          <t>ab_hp</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>ab_hp</t>
+          <t>cp_ct</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>cp_ct</t>
+          <t>cp_hp</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>cp_hp</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>ttes</t>
+          <t>btes</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
@@ -517,31 +517,31 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2052.218860977046</v>
+        <v>2324.963992519084</v>
       </c>
       <c r="B2" t="n">
-        <v>414.2092241107497</v>
+        <v>12690.88985174754</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>35763.55813371721</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>4151.291054911</v>
+        <v>289724.0114301849</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>5561.814581730499</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>48389.61416666667</v>
+        <v>2534.277928792126</v>
       </c>
       <c r="I2" t="n">
-        <v>27601.97061347967</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -556,10 +556,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>5566.74262317493</v>
+        <v>1356.629742360818</v>
       </c>
       <c r="O2" t="n">
-        <v>5270.502484020808</v>
+        <v>1995.762462679781</v>
       </c>
     </row>
   </sheetData>
@@ -589,67 +589,67 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>gb</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>hp</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>st</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>wi</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>gt</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>dgt</t>
+          <t>ieh</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ieh</t>
+          <t>chp</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>chp</t>
+          <t>ac</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ac</t>
+          <t>ab_ct</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ab_ct</t>
+          <t>ab_hp</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>ab_hp</t>
+          <t>cp_ct</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>cp_ct</t>
+          <t>cp_hp</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>cp_hp</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>ttes</t>
+          <t>btes</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
@@ -660,31 +660,31 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>13360.66620041937</v>
+        <v>2324.963992519084</v>
       </c>
       <c r="B2" t="n">
-        <v>2147.274992395539</v>
+        <v>31934.05165450284</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>156823.0330277273</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>23198.11342737314</v>
+        <v>289724.0114301849</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>8019.902378734111</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>60496.07974753212</v>
+        <v>7410.946080941625</v>
       </c>
       <c r="I2" t="n">
-        <v>82531.14001670983</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -696,13 +696,13 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>734.0531224494713</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>14344.63911642754</v>
+        <v>5002.85995535194</v>
       </c>
       <c r="O2" t="n">
-        <v>12306.21448164699</v>
+        <v>5738.328092052152</v>
       </c>
     </row>
   </sheetData>
@@ -732,67 +732,67 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>gb</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>hp</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>st</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>wi</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>gt</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>dgt</t>
+          <t>ieh</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ieh</t>
+          <t>chp</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>chp</t>
+          <t>ac</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ac</t>
+          <t>ab_ct</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ab_ct</t>
+          <t>ab_hp</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>ab_hp</t>
+          <t>cp_ct</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>cp_ct</t>
+          <t>cp_hp</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>cp_hp</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>ttes</t>
+          <t>btes</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
@@ -803,31 +803,31 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>35152.49194819262</v>
+        <v>5844.829946580048</v>
       </c>
       <c r="B2" t="n">
-        <v>17977.50003542302</v>
+        <v>71365.75812088215</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>177057.9524687953</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>31338.2146461543</v>
+        <v>289724.0114301849</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>8019.902378734111</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>60496.07974753212</v>
+        <v>11593.76417664666</v>
       </c>
       <c r="I2" t="n">
-        <v>169746.2724803816</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -839,13 +839,13 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>32465.48218927615</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>19564.609772181</v>
+        <v>9458.0206262875</v>
       </c>
       <c r="O2" t="n">
-        <v>31781.30692718853</v>
+        <v>9655.305390073216</v>
       </c>
     </row>
   </sheetData>
@@ -875,67 +875,67 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>gb</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>hp</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>st</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>wi</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>gt</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>dgt</t>
+          <t>ieh</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ieh</t>
+          <t>chp</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>chp</t>
+          <t>ac</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ac</t>
+          <t>ab_ct</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ab_ct</t>
+          <t>ab_hp</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>ab_hp</t>
+          <t>cp_ct</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>cp_ct</t>
+          <t>cp_hp</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>cp_hp</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>ttes</t>
+          <t>btes</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
@@ -946,31 +946,31 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>35152.49194819262</v>
+        <v>5844.829946580048</v>
       </c>
       <c r="B2" t="n">
-        <v>17977.50003542302</v>
+        <v>71365.75812088215</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>177057.9524687953</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>31338.2146461543</v>
+        <v>289724.0114301849</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>8019.902378734111</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>60496.07974753212</v>
+        <v>11593.76417664666</v>
       </c>
       <c r="I2" t="n">
-        <v>169746.2724803816</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -982,13 +982,13 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>32465.48218927615</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>19564.609772181</v>
+        <v>9458.0206262875</v>
       </c>
       <c r="O2" t="n">
-        <v>31781.30692718853</v>
+        <v>9655.305390073216</v>
       </c>
     </row>
   </sheetData>
@@ -1018,67 +1018,67 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>gb</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>hp</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>st</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>wi</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>gt</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>dgt</t>
+          <t>ieh</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ieh</t>
+          <t>chp</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>chp</t>
+          <t>ac</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ac</t>
+          <t>ab_ct</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ab_ct</t>
+          <t>ab_hp</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>ab_hp</t>
+          <t>cp_ct</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>cp_ct</t>
+          <t>cp_hp</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>cp_hp</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>ttes</t>
+          <t>btes</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
@@ -1089,31 +1089,31 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>35152.49194819262</v>
+        <v>5844.829946580048</v>
       </c>
       <c r="B2" t="n">
-        <v>17977.50003542302</v>
+        <v>71365.75812088215</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>177057.9524687953</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>31338.2146461543</v>
+        <v>289724.0114301849</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>8019.902378734111</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>60496.07974753212</v>
+        <v>11593.76417664666</v>
       </c>
       <c r="I2" t="n">
-        <v>169746.2724803816</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -1125,13 +1125,13 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>32465.48218927615</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>19564.609772181</v>
+        <v>9458.0206262875</v>
       </c>
       <c r="O2" t="n">
-        <v>31781.30692718853</v>
+        <v>9655.305390073216</v>
       </c>
     </row>
   </sheetData>
@@ -1161,67 +1161,67 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>gb</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>hp</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>st</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>wi</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>gt</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>dgt</t>
+          <t>ieh</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ieh</t>
+          <t>chp</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>chp</t>
+          <t>ac</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ac</t>
+          <t>ab_ct</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ab_ct</t>
+          <t>ab_hp</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>ab_hp</t>
+          <t>cp_ct</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>cp_ct</t>
+          <t>cp_hp</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>cp_hp</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>ttes</t>
+          <t>btes</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
@@ -1232,31 +1232,31 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>35152.49194819262</v>
+        <v>5844.829946580048</v>
       </c>
       <c r="B2" t="n">
-        <v>17977.50003542302</v>
+        <v>71365.75812088215</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>177057.9524687953</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>31338.2146461543</v>
+        <v>289724.0114301849</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>8019.902378734111</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>60496.07974753212</v>
+        <v>11593.76417664666</v>
       </c>
       <c r="I2" t="n">
-        <v>169746.2724803816</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -1268,13 +1268,13 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>32465.48218927615</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>19564.609772181</v>
+        <v>9458.0206262875</v>
       </c>
       <c r="O2" t="n">
-        <v>31781.30692718853</v>
+        <v>9655.305390073216</v>
       </c>
     </row>
   </sheetData>

--- a/results/[13_zero_co2_price]_#_fix_cost.xlsx
+++ b/results/[13_zero_co2_price]_#_fix_cost.xlsx
@@ -517,10 +517,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>4386.58098096851</v>
+        <v>4386.58098096848</v>
       </c>
       <c r="B2" t="n">
-        <v>1887.750563722889</v>
+        <v>1887.750563722885</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -535,10 +535,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4231.516049511674</v>
+        <v>4231.516049511733</v>
       </c>
       <c r="H2" t="n">
-        <v>49322.36395174918</v>
+        <v>49322.36395174917</v>
       </c>
       <c r="I2" t="n">
         <v>40307.21206296</v>
@@ -556,7 +556,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>5169.61678787112</v>
+        <v>5169.616787871112</v>
       </c>
       <c r="O2" t="n">
         <v>6937.012684477218</v>
@@ -660,7 +660,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>9530.678248741482</v>
+        <v>9530.678248741355</v>
       </c>
       <c r="B2" t="n">
         <v>15047.9874167341</v>
@@ -678,7 +678,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4231.516049511674</v>
+        <v>4231.516049511733</v>
       </c>
       <c r="H2" t="n">
         <v>59837.73428632267</v>
@@ -699,10 +699,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>7603.607993347517</v>
+        <v>7603.607993347585</v>
       </c>
       <c r="O2" t="n">
-        <v>12201.72900914311</v>
+        <v>12201.72900914312</v>
       </c>
     </row>
   </sheetData>
@@ -803,10 +803,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>18114.08743212745</v>
+        <v>18114.08743212751</v>
       </c>
       <c r="B2" t="n">
-        <v>15048.22929088937</v>
+        <v>15048.22929088919</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -821,13 +821,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4231.516049511674</v>
+        <v>4231.516049511733</v>
       </c>
       <c r="H2" t="n">
         <v>59837.73428632267</v>
       </c>
       <c r="I2" t="n">
-        <v>91505.69078165847</v>
+        <v>91505.69078165846</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -839,13 +839,13 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>2812.883060279026</v>
+        <v>2812.883060279029</v>
       </c>
       <c r="N2" t="n">
-        <v>8803.659275398724</v>
+        <v>8803.659275398713</v>
       </c>
       <c r="O2" t="n">
-        <v>17930.2177511366</v>
+        <v>17930.21775113662</v>
       </c>
     </row>
   </sheetData>
@@ -946,10 +946,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>18114.08743212745</v>
+        <v>18114.08743212751</v>
       </c>
       <c r="B2" t="n">
-        <v>15048.22929088937</v>
+        <v>15048.22929088919</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -964,13 +964,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4231.516049511674</v>
+        <v>4231.516049511733</v>
       </c>
       <c r="H2" t="n">
         <v>59837.73428632267</v>
       </c>
       <c r="I2" t="n">
-        <v>91505.69078165847</v>
+        <v>91505.69078165846</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -982,13 +982,13 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>2812.883060279026</v>
+        <v>2812.883060279029</v>
       </c>
       <c r="N2" t="n">
-        <v>8803.659275398724</v>
+        <v>8803.659275398713</v>
       </c>
       <c r="O2" t="n">
-        <v>17930.2177511366</v>
+        <v>17930.21775113662</v>
       </c>
     </row>
   </sheetData>
@@ -1089,10 +1089,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>18114.08743212745</v>
+        <v>18114.08743212751</v>
       </c>
       <c r="B2" t="n">
-        <v>15048.22929088937</v>
+        <v>15048.22929088919</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -1107,13 +1107,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4231.516049511674</v>
+        <v>4231.516049511733</v>
       </c>
       <c r="H2" t="n">
         <v>59837.73428632267</v>
       </c>
       <c r="I2" t="n">
-        <v>91505.69078165847</v>
+        <v>91505.69078165846</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -1125,13 +1125,13 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>2812.883060279026</v>
+        <v>2812.883060279029</v>
       </c>
       <c r="N2" t="n">
-        <v>8803.659275398724</v>
+        <v>8803.659275398713</v>
       </c>
       <c r="O2" t="n">
-        <v>17930.2177511366</v>
+        <v>17930.21775113662</v>
       </c>
     </row>
   </sheetData>
@@ -1232,10 +1232,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>18114.08743212745</v>
+        <v>18114.08743212751</v>
       </c>
       <c r="B2" t="n">
-        <v>15048.22929088937</v>
+        <v>15048.22929088919</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -1250,13 +1250,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4231.516049511674</v>
+        <v>4231.516049511733</v>
       </c>
       <c r="H2" t="n">
         <v>59837.73428632267</v>
       </c>
       <c r="I2" t="n">
-        <v>91505.69078165847</v>
+        <v>91505.69078165846</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -1268,13 +1268,13 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>2812.883060279026</v>
+        <v>2812.883060279029</v>
       </c>
       <c r="N2" t="n">
-        <v>8803.659275398724</v>
+        <v>8803.659275398713</v>
       </c>
       <c r="O2" t="n">
-        <v>17930.2177511366</v>
+        <v>17930.21775113662</v>
       </c>
     </row>
   </sheetData>

--- a/results/[13_zero_co2_price]_#_fix_cost.xlsx
+++ b/results/[13_zero_co2_price]_#_fix_cost.xlsx
@@ -556,10 +556,10 @@
         <v>10590.587968015</v>
       </c>
       <c r="N2" t="n">
-        <v>7098.474579830177</v>
+        <v>7098.474579830174</v>
       </c>
       <c r="O2" t="n">
-        <v>6965.142708907404</v>
+        <v>6965.1427089074</v>
       </c>
     </row>
   </sheetData>
@@ -663,7 +663,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>5712.560177842886</v>
+        <v>5707.815717280662</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -684,7 +684,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>44217.8984721661</v>
+        <v>44492.05901988943</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -693,16 +693,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>66966.57749858923</v>
+        <v>66334.06707325629</v>
       </c>
       <c r="M2" t="n">
-        <v>21984.28023276101</v>
+        <v>21991.42050229464</v>
       </c>
       <c r="N2" t="n">
-        <v>10503.58911838769</v>
+        <v>10503.58911838768</v>
       </c>
       <c r="O2" t="n">
-        <v>12022.61948454972</v>
+        <v>12039.81600698566</v>
       </c>
     </row>
   </sheetData>
@@ -803,10 +803,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2861.961401238371</v>
+        <v>2927.360317916481</v>
       </c>
       <c r="B2" t="n">
-        <v>8026.889663087295</v>
+        <v>7940.887964949257</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -815,7 +815,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>67297.73995507321</v>
+        <v>67179.99183625776</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -827,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>59256.42575923612</v>
+        <v>59530.75343380851</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -836,16 +836,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>66966.57749858923</v>
+        <v>66334.06707325629</v>
       </c>
       <c r="M2" t="n">
-        <v>25464.6214365565</v>
+        <v>25547.11936466757</v>
       </c>
       <c r="N2" t="n">
-        <v>15008.88598672954</v>
+        <v>14996.33602230955</v>
       </c>
       <c r="O2" t="n">
-        <v>14717.53372517132</v>
+        <v>14718.4361623581</v>
       </c>
     </row>
   </sheetData>
@@ -946,10 +946,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2861.961401238371</v>
+        <v>2927.360317916481</v>
       </c>
       <c r="B2" t="n">
-        <v>8026.889663087295</v>
+        <v>7940.887964949257</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -958,7 +958,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>67297.73995507321</v>
+        <v>67179.99183625776</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -970,7 +970,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>59256.42575923612</v>
+        <v>59530.75343380851</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -979,16 +979,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>66966.57749858923</v>
+        <v>66334.06707325629</v>
       </c>
       <c r="M2" t="n">
-        <v>25464.6214365565</v>
+        <v>25547.11936466757</v>
       </c>
       <c r="N2" t="n">
-        <v>15111.10479697713</v>
+        <v>15101.21309504717</v>
       </c>
       <c r="O2" t="n">
-        <v>14717.53372517132</v>
+        <v>14718.4361623581</v>
       </c>
     </row>
   </sheetData>
@@ -1089,10 +1089,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>6302.873118834019</v>
+        <v>6352.985609279765</v>
       </c>
       <c r="B2" t="n">
-        <v>8026.889663087295</v>
+        <v>7940.887964949257</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -1101,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>67297.73995507321</v>
+        <v>67179.99183625776</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -1113,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>59256.42575923612</v>
+        <v>59530.75343380851</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -1122,16 +1122,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>66966.57749858923</v>
+        <v>66334.06707325629</v>
       </c>
       <c r="M2" t="n">
-        <v>25464.6214365565</v>
+        <v>25547.11936466757</v>
       </c>
       <c r="N2" t="n">
-        <v>15633.82115826023</v>
+        <v>15632.92561905594</v>
       </c>
       <c r="O2" t="n">
-        <v>17024.64289623143</v>
+        <v>17025.5453334183</v>
       </c>
     </row>
   </sheetData>
@@ -1232,10 +1232,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>6302.873118834019</v>
+        <v>6352.985609279765</v>
       </c>
       <c r="B2" t="n">
-        <v>8026.889663087295</v>
+        <v>7940.887964949257</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -1244,7 +1244,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>67297.73995507321</v>
+        <v>67179.99183625776</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>59256.42575923612</v>
+        <v>59530.75343380851</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -1265,16 +1265,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>66966.57749858923</v>
+        <v>66334.06707325629</v>
       </c>
       <c r="M2" t="n">
-        <v>25464.6214365565</v>
+        <v>25547.11936466757</v>
       </c>
       <c r="N2" t="n">
-        <v>15633.82115826023</v>
+        <v>15632.92561905594</v>
       </c>
       <c r="O2" t="n">
-        <v>17024.64289623143</v>
+        <v>17025.5453334183</v>
       </c>
     </row>
   </sheetData>
